--- a/trained_models_old_clean/MLP/mammographic/results_table.xlsx
+++ b/trained_models_old_clean/MLP/mammographic/results_table.xlsx
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.06297525137970737, 'beta_2': 0.555093593527375, 'epsilon': 0.009230833413054227, 'learning_rate': 'invscaling', 'momentum': 0.7851529120231378, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5864101661863267}</t>
+          <t>{'beta_1': 0.7277370293981251, 'beta_2': 0.33601430464162907, 'epsilon': 0.7646935113620771, 'learning_rate': 'invscaling', 'momentum': 0.9488092614228859, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.07580426311938915}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.8514056224899599</v>
+        <v>0.8393574297188755</v>
       </c>
     </row>
     <row r="3">
@@ -540,7 +540,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.22409271194576452, 'beta_2': 0.09774664000954002, 'epsilon': 0.8613293259042616, 'learning_rate': 'constant', 'momentum': 0.3436055031480987, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.4113724140379379}</t>
+          <t>{'beta_1': 0.0849909989586575, 'beta_2': 0.45227613022865165, 'epsilon': 0.9317328660123573, 'learning_rate': 'constant', 'momentum': 0.3114860684923213, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6972742926194663}</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -576,7 +576,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5496658014582771, 'beta_2': 0.35345242454898307, 'epsilon': 0.9850725912238489, 'learning_rate': 'constant', 'momentum': 0.7646330109588501, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.15851485058039905}</t>
+          <t>{'beta_1': 0.24917062101539475, 'beta_2': 0.10580024872734997, 'epsilon': 0.9500016584443387, 'learning_rate': 'constant', 'momentum': 0.3581074751151223, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9167270193301819}</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -612,7 +612,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6784115250117865, 'beta_2': 0.8634171612435584, 'epsilon': 0.7500934013828031, 'learning_rate': 'invscaling', 'momentum': 0.31194499547960186, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.20984374897512215}</t>
+          <t>{'beta_1': 0.5284109891018522, 'beta_2': 0.30414191798303086, 'epsilon': 0.9969642890773448, 'learning_rate': 'invscaling', 'momentum': 0.5973029395241212, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.005189627256445006}</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.04322740576575398, 'beta_2': 0.7999597479776487, 'epsilon': 0.37705275503017843, 'learning_rate': 'constant', 'momentum': 0.47166406620494905, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7243309792357789}</t>
+          <t>{'beta_1': 0.519094064086862, 'beta_2': 0.6599215566819873, 'epsilon': 0.5656267886268035, 'learning_rate': 'constant', 'momentum': 0.2626108832218125, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.1670891885098651}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.8393574297188755</v>
+        <v>0.8674698795180723</v>
       </c>
     </row>
     <row r="7">
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.8313253012048193</v>
+        <v>0.8393574297188755</v>
       </c>
     </row>
     <row r="8">
@@ -720,7 +720,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8023409362111764, 'beta_2': 0.03714396089515617, 'epsilon': 0.7705495326661607, 'learning_rate': 'adaptive', 'momentum': 0.1648055898475378, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.13643236902046962}</t>
+          <t>{'beta_1': 0.44159360209219534, 'beta_2': 0.5194324221962674, 'epsilon': 0.693262454523613, 'learning_rate': 'invscaling', 'momentum': 0.46100682934939485, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5391182349867721}</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -756,11 +756,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.04044956203133352, 'beta_2': 0.4913894165920973, 'epsilon': 0.8142308472831555, 'learning_rate': 'constant', 'momentum': 0.6939881399885446, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5704366902119271}</t>
+          <t>{'beta_1': 0.3898401886642236, 'beta_2': 0.7323934817522378, 'epsilon': 0.9396979743809128, 'learning_rate': 'constant', 'momentum': 0.4787726368177081, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.7221507657001041}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.8393574297188755</v>
+        <v>0.5421686746987951</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4576806884327828, 'beta_2': 0.5903931811583613, 'epsilon': 0.856864921549361, 'learning_rate': 'adaptive', 'momentum': 0.09746868872548986, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.820767120701315}</t>
+          <t>{'beta_1': 0.3558969243603615, 'beta_2': 0.7563726480312566, 'epsilon': 0.9853427339385873, 'learning_rate': 'invscaling', 'momentum': 0.9534053465033483, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.17012610063108624}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.8393574297188755</v>
+        <v>0.8353413654618473</v>
       </c>
     </row>
     <row r="11">
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.24917062101539475, 'beta_2': 0.10580024872734997, 'epsilon': 0.9500016584443387, 'learning_rate': 'constant', 'momentum': 0.3581074751151223, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9167270193301819}</t>
+          <t>{'beta_1': 0.7210508272903668, 'beta_2': 0.1642126340254742, 'epsilon': 0.0009120066213287138, 'learning_rate': 'constant', 'momentum': 0.5453139942248814, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6675590128316528}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.8835341365461847</v>
+        <v>0.8393574297188755</v>
       </c>
     </row>
     <row r="12">
@@ -864,7 +864,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4214226733019249, 'beta_2': 0.38793128395292603, 'epsilon': 0.1602331427702575, 'learning_rate': 'invscaling', 'momentum': 0.8956912912102034, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8783724953799941}</t>
+          <t>{'beta_1': 0.9625065247504405, 'beta_2': 0.3046592187747645, 'epsilon': 0.9404978523922592, 'learning_rate': 'adaptive', 'momentum': 0.7513464276552426, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.19744130972614415}</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6063821830010174, 'beta_2': 0.14425342131756033, 'epsilon': 0.6955945558930755, 'learning_rate': 'adaptive', 'momentum': 0.11207188087491515, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.2847797050309543}</t>
+          <t>{'beta_1': 0.6784115250117865, 'beta_2': 0.8634171612435584, 'epsilon': 0.7500934013828031, 'learning_rate': 'invscaling', 'momentum': 0.31194499547960186, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.20984374897512215}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8755020080321285</v>
+        <v>0.8514056224899599</v>
       </c>
     </row>
     <row r="14">
@@ -936,11 +936,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4562309056652962, 'beta_2': 0.8239729079090322, 'epsilon': 0.6679372419381273, 'learning_rate': 'invscaling', 'momentum': 0.47314297846564424, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.733289134316726}</t>
+          <t>{'beta_1': 0.2519310839525446, 'beta_2': 0.5762929160756665, 'epsilon': 0.848694252965132, 'learning_rate': 'adaptive', 'momentum': 0.4031873370680834, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7783739539658819}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.8393574297188755</v>
+        <v>0.5421686746987951</v>
       </c>
     </row>
     <row r="15">
@@ -972,11 +972,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8262029973985192, 'beta_2': 0.17031668652341375, 'epsilon': 0.7005474479755266, 'learning_rate': 'invscaling', 'momentum': 0.1979076029143242, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.05690645260383198}</t>
+          <t>{'beta_1': 0.06389131085486015, 'beta_2': 0.4851419683386883, 'epsilon': 0.9765176446047024, 'learning_rate': 'constant', 'momentum': 0.33815895183684563, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2317016264712045}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.8393574297188755</v>
+        <v>0.8634538152610441</v>
       </c>
     </row>
     <row r="16">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6292719678840203, 'beta_2': 0.7743630713990834, 'epsilon': 0.4046364487929541, 'learning_rate': 'invscaling', 'momentum': 0.0015945706042945762, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.7791109940193555}</t>
+          <t>{'beta_1': 0.4142472780505331, 'beta_2': 0.2642910564925223, 'epsilon': 0.7734594557447825, 'learning_rate': 'constant', 'momentum': 0.5684339488686485, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6176354970758771}</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.05111926735386998, 'beta_2': 0.10397468759931923, 'epsilon': 0.6138236250432934, 'learning_rate': 'adaptive', 'momentum': 0.7255735341014894, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7731100525054192}</t>
+          <t>{'beta_1': 0.318152772679051, 'beta_2': 0.8413259323375559, 'epsilon': 0.8579980526540874, 'learning_rate': 'constant', 'momentum': 0.566088448063145, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.30128918764272283}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.8393574297188755</v>
+        <v>0.8634538152610441</v>
       </c>
     </row>
     <row r="18">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.11069316714792313, 'beta_2': 0.27895318215123505, 'epsilon': 0.5521879955057969, 'learning_rate': 'constant', 'momentum': 0.6238667252688536, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.010585739586393417}</t>
+          <t>{'beta_1': 0.13466016890707608, 'beta_2': 0.8488231537821458, 'epsilon': 0.35068366467308065, 'learning_rate': 'invscaling', 'momentum': 0.004703256227400421, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.09366070118905723}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.8393574297188755</v>
+        <v>0.8674698795180723</v>
       </c>
     </row>
     <row r="19">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.25121232420123485, 'beta_2': 0.9313630133329627, 'epsilon': 0.9920083131636438, 'learning_rate': 'invscaling', 'momentum': 0.5129053230612274, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.34769798866549106}</t>
+          <t>{'beta_1': 0.013934447537481931, 'beta_2': 0.532932216069178, 'epsilon': 0.3042774486452318, 'learning_rate': 'constant', 'momentum': 0.07952208258675575, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6720478073539145}</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.11644205381716893, 'beta_2': 0.3572813958133706, 'epsilon': 0.004650182000346301, 'learning_rate': 'invscaling', 'momentum': 0.3881690830118073, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3564398889443938}</t>
+          <t>{'beta_1': 0.4441807347423176, 'beta_2': 0.9291962358814533, 'epsilon': 0.18108639448569455, 'learning_rate': 'constant', 'momentum': 0.5078736664026768, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5151529471065713}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.8393574297188755</v>
+        <v>0.8473895582329317</v>
       </c>
     </row>
     <row r="21">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.144476937515464, 'beta_2': 0.761011394000851, 'epsilon': 0.9236343742421546, 'learning_rate': 'constant', 'momentum': 0.5890983591262915, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.007913253289598021}</t>
+          <t>{'beta_1': 0.7770054833501733, 'beta_2': 0.07101681272948948, 'epsilon': 0.3420641590354221, 'learning_rate': 'adaptive', 'momentum': 0.12503687251526652, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8965321885275243}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.8634538152610441</v>
+        <v>0.8835341365461847</v>
       </c>
     </row>
   </sheetData>
